--- a/data/HR1_2/A_KPC_35_1/A_KPC_35_1_2020.xlsx
+++ b/data/HR1_2/A_KPC_35_1/A_KPC_35_1_2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1_2\A_KPC_35_1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\shared-resources-planning-v3\data\HR1\A_KPC_35\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F058A981-E455-4DF3-8FF2-0875BD1ABCD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3228184-DD9B-44DD-B4A3-63F442CD0494}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -377,7 +377,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -6263,9 +6263,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCEEFF66-812B-4A62-A958-597678292A9C}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -6420,6 +6422,237 @@
         <v>1</v>
       </c>
       <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
     </row>
@@ -13451,7 +13684,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4B72A64-5D55-439D-A1D6-333C69B60397}">
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -13610,6 +13843,237 @@
         <v>1</v>
       </c>
       <c r="Y2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>31</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
         <v>1</v>
       </c>
     </row>
